--- a/data/metadata.xlsx
+++ b/data/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MultiPathogen\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\新建文件夹 (2)\MultiPathogen\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAE42A0-89A8-445D-9A7D-BDF48641EECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C87B8C-71A2-4B58-9B9D-2F6DFEE7EF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="5220" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,19 +543,19 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="12.58203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="30.875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -601,7 +601,7 @@
         <v>39264</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -624,7 +624,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -647,7 +647,7 @@
         <v>38353</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -670,7 +670,7 @@
         <v>39814</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -693,7 +693,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -716,7 +716,7 @@
         <v>40179</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -739,7 +739,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -762,7 +762,7 @@
         <v>39264</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -785,7 +785,7 @@
         <v>39448</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -808,7 +808,7 @@
         <v>40179</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -831,7 +831,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -854,7 +854,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -877,7 +877,7 @@
         <v>40179</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -900,7 +900,7 @@
         <v>39265</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -914,7 +914,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>32</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -941,14 +941,14 @@
         <v>21</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="7">
         <v>40817</v>
       </c>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
